--- a/biology/Botanique/Zannichellie_des_marais/Zannichellie_des_marais.xlsx
+++ b/biology/Botanique/Zannichellie_des_marais/Zannichellie_des_marais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zannichellia palustris
-La zannichellie des marais (Zannichellia palustris) est une plante aquatique d'eau douce (et parfois trouvée en eau saumâtre). Cette vivace appartient à la famille des Potamogetonaceae, à distribution subcosmopolite, et considérée comme envahissante dans certains lacs de certains pays[1].
-On la trouve en Europe, en Asie, en Australasie et dans les deux Amérique (du Nord et du Sud) ; aux États-Unis on la trouve aussi dans des eaux saumâtres (en particulier dans la baie de Chesapeake[2]).
+La zannichellie des marais (Zannichellia palustris) est une plante aquatique d'eau douce (et parfois trouvée en eau saumâtre). Cette vivace appartient à la famille des Potamogetonaceae, à distribution subcosmopolite, et considérée comme envahissante dans certains lacs de certains pays.
+On la trouve en Europe, en Asie, en Australasie et dans les deux Amérique (du Nord et du Sud) ; aux États-Unis on la trouve aussi dans des eaux saumâtres (en particulier dans la baie de Chesapeake).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est reconnaissable à ses longues feuilles filiformes (qui peuvent cependant la faire confondre avec le potamot à feuilles pectinées).
 Ses racines sont également longues et vrillées et ses graines portent une excroissance en forme de cornes, distinctive (d'où son nom commun anglais : horned pondweed).
@@ -545,7 +559,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est classée « plante protégée » en Île-de-France, en Aquitaine et en Provence-Alpes-Côte d'Azur.
 </t>
@@ -576,7 +592,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>On en distingue deux :
 Zannichellia palustris subsp. pedicellata appelée Zannichellie pédicellée.
@@ -608,9 +626,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nombre de chromosomes : 2n = 24 (selon une étude japonaise publiée en 2007[3]).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nombre de chromosomes : 2n = 24 (selon une étude japonaise publiée en 2007).
 </t>
         </is>
       </c>
